--- a/salsal_PCA/Salmo_salar_localities.xlsx
+++ b/salsal_PCA/Salmo_salar_localities.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljchueca/Documents/_Trabajos_departamento/2023_MER_Master_Course/Salmo_salar_PCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smarcos007\Desktop\MER2024\MER2023_3\salsal_PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B6E9B-AD8A-DC46-AD69-9928CA0228EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36320" yWindow="3060" windowWidth="25440" windowHeight="15000" xr2:uid="{B726C6FD-B6B0-F248-8A6E-7F7947CBE3CC}"/>
+    <workbookView xWindow="36315" yWindow="3060" windowWidth="25440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="102">
   <si>
     <t>Population</t>
   </si>
@@ -333,12 +332,18 @@
   </si>
   <si>
     <t>Locality (rivers)</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Subpopulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -689,20 +694,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EF20FA-3D19-8A47-B007-D17D6C436146}">
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="133" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -710,10 +715,13 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -723,8 +731,11 @@
       <c r="C2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -734,8 +745,11 @@
       <c r="C3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -745,8 +759,11 @@
       <c r="C4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -756,8 +773,11 @@
       <c r="C5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -767,8 +787,11 @@
       <c r="C6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -778,8 +801,11 @@
       <c r="C7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -789,8 +815,11 @@
       <c r="C8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -800,8 +829,11 @@
       <c r="C9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -811,8 +843,11 @@
       <c r="C10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -822,8 +857,11 @@
       <c r="C11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -833,8 +871,11 @@
       <c r="C12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -844,8 +885,11 @@
       <c r="C13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -855,8 +899,11 @@
       <c r="C14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -866,8 +913,11 @@
       <c r="C15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -877,8 +927,11 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -888,8 +941,11 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -899,8 +955,11 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -910,8 +969,11 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -921,8 +983,11 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -932,8 +997,11 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -943,8 +1011,11 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -954,8 +1025,11 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -965,8 +1039,11 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -976,8 +1053,11 @@
       <c r="C25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -987,8 +1067,11 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -998,8 +1081,11 @@
       <c r="C27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1009,8 +1095,11 @@
       <c r="C28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1020,8 +1109,11 @@
       <c r="C29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1031,8 +1123,11 @@
       <c r="C30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1042,8 +1137,11 @@
       <c r="C31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1053,8 +1151,11 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1064,8 +1165,11 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1075,8 +1179,11 @@
       <c r="C34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1086,8 +1193,11 @@
       <c r="C35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1097,8 +1207,11 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1108,8 +1221,11 @@
       <c r="C37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1119,8 +1235,11 @@
       <c r="C38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1130,8 +1249,11 @@
       <c r="C39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1141,8 +1263,11 @@
       <c r="C40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1152,8 +1277,11 @@
       <c r="C41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1163,8 +1291,11 @@
       <c r="C42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1174,8 +1305,11 @@
       <c r="C43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1185,8 +1319,11 @@
       <c r="C44" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1196,8 +1333,11 @@
       <c r="C45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1207,8 +1347,11 @@
       <c r="C46" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1218,8 +1361,11 @@
       <c r="C47" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1229,8 +1375,11 @@
       <c r="C48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1240,8 +1389,11 @@
       <c r="C49" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1251,8 +1403,11 @@
       <c r="C50" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1262,8 +1417,11 @@
       <c r="C51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1273,8 +1431,11 @@
       <c r="C52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1284,8 +1445,11 @@
       <c r="C53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1295,8 +1459,11 @@
       <c r="C54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -1306,8 +1473,11 @@
       <c r="C55" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1317,8 +1487,11 @@
       <c r="C56" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1328,8 +1501,11 @@
       <c r="C57" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1339,8 +1515,11 @@
       <c r="C58" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1350,8 +1529,11 @@
       <c r="C59" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1361,8 +1543,11 @@
       <c r="C60" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1372,8 +1557,11 @@
       <c r="C61" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1382,6 +1570,9 @@
       </c>
       <c r="C62" t="s">
         <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
